--- a/media/relatorios.xlsx
+++ b/media/relatorios.xlsx
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -243,9 +243,6 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,7 +825,7 @@
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -842,7 +839,7 @@
       <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>1950</v>
       </c>
     </row>
@@ -856,7 +853,7 @@
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -870,7 +867,7 @@
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3" t="n">
         <v>680</v>
       </c>
     </row>
@@ -884,7 +881,7 @@
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>950</v>
       </c>
     </row>
@@ -898,7 +895,7 @@
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3" t="n">
         <v>1425</v>
       </c>
     </row>
@@ -912,7 +909,7 @@
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3" t="n">
         <v>500</v>
       </c>
     </row>
@@ -926,7 +923,7 @@
       <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="3" t="n">
         <v>500</v>
       </c>
     </row>
@@ -940,7 +937,7 @@
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="3" t="n">
         <v>680</v>
       </c>
     </row>
@@ -954,7 +951,7 @@
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="3" t="n">
         <v>680</v>
       </c>
     </row>
@@ -968,7 +965,7 @@
       <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="3" t="n">
         <v>500</v>
       </c>
     </row>
@@ -982,7 +979,7 @@
       <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="3" t="n">
         <v>500</v>
       </c>
     </row>
@@ -996,7 +993,7 @@
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="3" t="n">
         <v>680</v>
       </c>
     </row>
@@ -1022,7 +1019,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="n">
-        <v>1622</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4">
